--- a/team_results/assat/xlsx_assat_1_played_games_data.xlsx
+++ b/team_results/assat/xlsx_assat_1_played_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,134 +475,134 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2021-09-10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2021-09-11</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>lukko</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>lukko</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>hpk</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>kalpa</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>hpk</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>hpk</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>hpk</t>
         </is>
       </c>
     </row>
@@ -611,32 +611,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>karpat</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>karpat</t>
         </is>
       </c>
     </row>
@@ -645,100 +645,100 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>jukurit</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>48</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021-09-25</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>assat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>lukko</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>50</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2021-09-29</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ilves</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>assat</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ilves</t>
+          <t>lukko</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>ilves</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>hifk</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>ilves</t>
         </is>
       </c>
     </row>
@@ -747,21 +747,21 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2021-10-01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>pelicans</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>hifk</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>pelicans</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
@@ -781,32 +781,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2021-10-02</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>pelicans</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>jyp</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>jyp</t>
+          <t>pelicans</t>
         </is>
       </c>
     </row>
@@ -815,32 +815,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>jyp</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
         <v>3</v>
       </c>
-      <c r="G12" t="n">
-        <v>4</v>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>jyp</t>
         </is>
       </c>
     </row>
@@ -849,16 +849,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-10-09</t>
+          <t>2021-10-08</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>saipa</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -867,14 +867,14 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
@@ -883,32 +883,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2021-10-09</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ilves</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ilves</t>
+          <t>kookoo</t>
         </is>
       </c>
     </row>
@@ -917,32 +917,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2021-10-16</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>ilves</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
         <v>4</v>
       </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>ilves</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>kalpa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>kalpa</t>
         </is>
       </c>
     </row>
@@ -985,32 +985,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-10-23</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>tps</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>tps</t>
         </is>
       </c>
     </row>
@@ -1019,32 +1019,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-10-27</t>
+          <t>2021-10-23</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>sport</t>
         </is>
       </c>
     </row>
@@ -1053,11 +1053,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1067,18 +1067,18 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
@@ -1087,32 +1087,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>jyp</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>tappara</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>tappara</t>
         </is>
       </c>
     </row>
@@ -1121,32 +1121,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>jyp</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
@@ -1155,11 +1155,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-11-20</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1169,18 +1169,18 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>hpk</t>
+          <t>saipa</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>hpk</t>
+          <t>saipa</t>
         </is>
       </c>
     </row>
@@ -1189,32 +1189,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-12-04</t>
+          <t>2021-11-20</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>hpk</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>hpk</t>
         </is>
       </c>
     </row>
@@ -1223,32 +1223,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-11-26</t>
+          <t>2021-12-04</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>karpat</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="G24" t="n">
-        <v>5</v>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>karpat</t>
         </is>
       </c>
     </row>
@@ -1257,11 +1257,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2021-11-26</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1271,18 +1271,18 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>tappara</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>tappara</t>
         </is>
       </c>
     </row>
@@ -1291,11 +1291,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-12-08</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1305,18 +1305,18 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>tps</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>tps</t>
         </is>
       </c>
     </row>
@@ -1325,32 +1325,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-12-10</t>
+          <t>2021-12-08</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>jukurit</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>jukurit</t>
         </is>
       </c>
     </row>
@@ -1359,28 +1359,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2021-12-10</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>lukko</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>pelicans</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1390,14 +1390,14 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-12-26</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1407,11 +1407,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>pelicans</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1424,31 +1424,31 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2021-12-26</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>hifk</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>tps</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1458,19 +1458,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-12-30</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>hifk</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1495,16 +1495,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2022-01-07</t>
+          <t>2021-12-30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ilves</t>
+          <t>tps</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1513,14 +1513,14 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ilves</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
@@ -1529,28 +1529,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2022-01-08</t>
+          <t>2022-01-07</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>ilves</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ilves</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1563,32 +1563,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2022-01-08</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>ilves</t>
         </is>
       </c>
       <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
         <v>4</v>
       </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>ilves</t>
         </is>
       </c>
     </row>
@@ -1597,32 +1597,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2022-01-14</t>
+          <t>2022-01-12</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>jukurit</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>jukurit</t>
         </is>
       </c>
     </row>
@@ -1631,32 +1631,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2022-01-15</t>
+          <t>2022-01-14</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>karpat</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>karpat</t>
         </is>
       </c>
     </row>
@@ -1665,32 +1665,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2022-01-22</t>
+          <t>2022-01-15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>sport</t>
         </is>
       </c>
     </row>
@@ -1699,32 +1699,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-22</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>lukko</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>lukko</t>
         </is>
       </c>
     </row>
@@ -1733,32 +1733,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-01-26</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>tps</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>tps</t>
         </is>
       </c>
     </row>
@@ -1767,11 +1767,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1781,70 +1781,70 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>saipa</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>saipa</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2022-02-08</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>lukko</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>lukko</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-08</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>hifk</t>
+          <t>kalpa</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1853,14 +1853,14 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>hifk</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
@@ -1869,84 +1869,84 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-10</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>hifk</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>hpk</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
         <v>2</v>
       </c>
-      <c r="G43" t="n">
-        <v>3</v>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>hpk</t>
+          <t>hifk</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-02-12</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>hpk</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>hpk</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="n">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>tappara</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1958,11 +1958,11 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>tappara</t>
         </is>
       </c>
     </row>
@@ -1971,16 +1971,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2022-02-18</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>saipa</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1992,111 +1992,145 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>pelicans</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>kookoo</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2022-02-25</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>jyp</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>pelicans</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>jyp</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="n">
+        <v>387</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>jyp</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>assat</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>jyp</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
         <v>397</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>2022-02-26</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>assat</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>assat</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>jukurit</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
         <v>4</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>jukurit</t>
         </is>

--- a/team_results/assat/xlsx_assat_1_played_games_data.xlsx
+++ b/team_results/assat/xlsx_assat_1_played_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>12</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>18</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>48</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>50</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>242</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>244</v>
@@ -1699,11 +1699,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2022-01-22</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1713,18 +1713,18 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>kookoo</t>
         </is>
       </c>
     </row>
@@ -1733,32 +1733,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-22</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>lukko</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>lukko</t>
         </is>
       </c>
     </row>
@@ -1767,32 +1767,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-01-26</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>tps</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>tps</t>
         </is>
       </c>
     </row>
@@ -1801,11 +1801,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1815,18 +1815,18 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>saipa</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>saipa</t>
         </is>
       </c>
     </row>
@@ -1835,32 +1835,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2022-02-08</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>lukko</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>lukko</t>
         </is>
       </c>
     </row>
@@ -1869,16 +1869,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-08</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>hifk</t>
+          <t>kalpa</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1887,82 +1887,82 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>hifk</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-10</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>hifk</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>hpk</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
         <v>2</v>
       </c>
-      <c r="G44" t="n">
-        <v>3</v>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>hpk</t>
+          <t>hifk</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-02-12</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>hpk</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>hpk</t>
         </is>
       </c>
     </row>
@@ -1971,16 +1971,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>tappara</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1992,11 +1992,11 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>tappara</t>
         </is>
       </c>
     </row>
@@ -2005,16 +2005,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2022-02-18</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>saipa</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2026,79 +2026,79 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>pelicans</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>kookoo</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2022-02-25</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>jyp</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>pelicans</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>jyp</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
@@ -2107,30 +2107,64 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>387</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>jyp</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>assat</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>jyp</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
         <v>397</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>2022-02-26</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>assat</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>assat</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>jukurit</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
         <v>4</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>jukurit</t>
         </is>
